--- a/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:37:07+00:00</t>
+    <t>2023-02-24T14:52:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:52:45+00:00</t>
+    <t>2023-02-25T15:21:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T15:21:41+00:00</t>
+    <t>2023-02-25T15:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T15:28:03+00:00</t>
+    <t>2023-02-27T07:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:44:43+00:00</t>
+    <t>2023-02-27T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:08:58+00:00</t>
+    <t>2023-02-27T08:14:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
